--- a/data/trans_dic/P16-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,17%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,78%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>33,4; 45,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>52,24; 64,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>59,45; 71,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>52,3; 65,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>64,0; 74,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>70,74; 79,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>44,91; 53,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>59,57; 67,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>66,92; 74,35</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,15%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>33,57; 42,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>46,49; 55,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>43,78; 52,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>45,79; 57,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>54,07; 62,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>68,14; 76,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>63,28; 71,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>61,16; 68,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>45,51; 51,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>58,27; 64,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>54,9; 61,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>54,55; 61,67</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,91%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>30,47; 41,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>48,45; 59,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>45,6; 56,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>53,93; 65,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>56,38; 66,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>71,17; 80,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>60,55; 70,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>65,54; 73,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>45,1; 53,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>61,51; 68,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>54,43; 62,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>61,07; 68,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,18%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,92%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>35,09; 45,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>48,23; 56,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>56,24; 66,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>50,77; 64,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>52,97; 62,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>72,36; 78,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>69,75; 78,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>58,32; 70,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>45,71; 52,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>61,36; 66,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>64,53; 71,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>57,41; 66,59</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,38%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,37%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,52%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,86%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>40,32; 54,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>45,98; 60,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>36,21; 50,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>42,17; 54,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>56,55; 70,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>75,73; 86,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>58,12; 71,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>58,72; 68,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>50,55; 60,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>63,11; 72,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>49,25; 58,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>52,79; 60,55</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,82%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>34,68; 46,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>52,84; 64,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>39,93; 51,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>52,92; 64,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>58,18; 70,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>72,9; 82,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>56,91; 69,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>58,98; 69,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>48,43; 56,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>64,48; 72,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>50,63; 59,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>58,18; 65,6</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,37%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,03%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>34,93; 42,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>48,18; 56,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>41,0; 49,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>56,82; 65,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>51,92; 59,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>63,88; 71,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>53,11; 60,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>67,99; 82,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>44,75; 50,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>57,25; 62,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>48,49; 54,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>64,25; 75,92</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,43%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,56%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>40,57; 47,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>38,13; 45,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>45,05; 52,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>28,95; 40,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>53,02; 60,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>55,21; 61,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>60,63; 67,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>47,97; 54,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>48,1; 53,31</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>47,68; 52,89</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>53,86; 58,85</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>39,51; 46,24</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,22%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,48%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,81%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>38,75; 42,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,61; 52,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>48,05; 51,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>49,13; 54,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>56,82; 60,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>68,7; 71,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>63,27; 66,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>62,83; 68,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,5; 50,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>59,31; 61,69</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>56,27; 58,82</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>57,12; 61,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>74,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>70,78%</t>
+          <t>69,49%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,19; 63,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,45; 71,79</t>
+          <t>57,42; 71,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,53; 82,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,74; 79,43</t>
+          <t>69,13; 78,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,12; 71,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>66,92; 74,35</t>
+          <t>65,03; 73,33</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>64,79%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>58,15%</t>
+          <t>57,05%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,79; 57,29</t>
+          <t>43,97; 56,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,16; 68,75</t>
+          <t>60,97; 68,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,55; 61,67</t>
+          <t>53,25; 60,65</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>69,83%</t>
+          <t>69,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>64,91%</t>
+          <t>64,3%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,93; 65,04</t>
+          <t>53,22; 64,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,54; 73,82</t>
+          <t>65,08; 73,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,07; 68,37</t>
+          <t>60,49; 67,84</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>48,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,85%</t>
+          <t>57,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>75,79%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>65,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>64,18%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>61,92%</t>
+          <t>62,44%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,23; 56,36</t>
+          <t>43,1; 53,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,77; 64,92</t>
+          <t>49,8; 64,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,36; 78,94</t>
+          <t>69,68; 78,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,32; 70,61</t>
+          <t>53,49; 78,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,36; 66,62</t>
+          <t>57,82; 65,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,41; 66,59</t>
+          <t>54,72; 72,33</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>48,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>64,52%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>57,08%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,17; 54,16</t>
+          <t>42,28; 54,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,72; 68,68</t>
+          <t>59,5; 69,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>52,79; 60,55</t>
+          <t>53,02; 60,73</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>59,01%</t>
+          <t>58,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>64,64%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>61,82%</t>
+          <t>61,46%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,92; 64,34</t>
+          <t>52,3; 63,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,98; 69,31</t>
+          <t>58,97; 69,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>58,18; 65,6</t>
+          <t>57,79; 65,3</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>60,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>73,37%</t>
+          <t>76,37%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>69,48%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>56,82; 65,71</t>
+          <t>55,32; 64,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,99; 82,24</t>
+          <t>67,88; 87,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>64,25; 75,92</t>
+          <t>63,52; 80,82</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>51,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>38,53%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,95; 40,04</t>
+          <t>13,54; 39,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,97; 54,57</t>
+          <t>48,6; 55,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>39,51; 46,24</t>
+          <t>24,67; 45,99</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>52,19%</t>
+          <t>49,3%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>64,7%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>58,0%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>49,13; 54,39</t>
+          <t>38,2; 53,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>62,83; 68,1</t>
+          <t>63,28; 72,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>57,12; 61,03</t>
+          <t>51,85; 61,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,4; 45,06</t>
+          <t>33,34; 45,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,19; 63,1</t>
+          <t>50,38; 62,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,24; 64,82</t>
+          <t>52,7; 64,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,42; 71,19</t>
+          <t>57,28; 71,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,3; 65,11</t>
+          <t>52,58; 65,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,53; 82,29</t>
+          <t>72,34; 82,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,0; 74,8</t>
+          <t>64,29; 75,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,13; 78,99</t>
+          <t>68,62; 78,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,91; 53,34</t>
+          <t>44,54; 53,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63,12; 71,25</t>
+          <t>62,89; 71,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,57; 67,93</t>
+          <t>60,33; 68,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>65,03; 73,33</t>
+          <t>65,06; 73,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,57; 42,77</t>
+          <t>34,02; 43,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,49; 55,58</t>
+          <t>46,65; 55,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,78; 52,94</t>
+          <t>43,85; 53,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,97; 56,15</t>
+          <t>44,44; 55,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,07; 62,5</t>
+          <t>53,75; 62,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,14; 76,19</t>
+          <t>67,77; 75,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,28; 71,32</t>
+          <t>62,64; 70,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,97; 68,56</t>
+          <t>60,14; 68,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,51; 51,93</t>
+          <t>45,23; 51,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,27; 64,48</t>
+          <t>58,15; 64,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,9; 61,38</t>
+          <t>54,45; 60,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>53,25; 60,65</t>
+          <t>53,36; 60,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,47; 41,67</t>
+          <t>31,34; 41,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,45; 59,83</t>
+          <t>48,38; 59,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,6; 56,52</t>
+          <t>45,33; 56,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,22; 64,61</t>
+          <t>52,44; 64,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,38; 66,34</t>
+          <t>56,08; 66,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,17; 80,65</t>
+          <t>70,89; 80,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,55; 70,7</t>
+          <t>60,06; 70,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,08; 73,51</t>
+          <t>64,99; 73,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,1; 53,06</t>
+          <t>45,01; 52,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>61,51; 68,82</t>
+          <t>61,29; 68,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,43; 62,22</t>
+          <t>54,83; 62,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>60,49; 67,84</t>
+          <t>60,9; 67,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,09; 45,38</t>
+          <t>34,8; 45,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,1; 53,87</t>
+          <t>43,27; 54,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,24; 66,46</t>
+          <t>56,17; 66,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,8; 64,73</t>
+          <t>49,51; 64,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,97; 62,88</t>
+          <t>52,58; 62,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,68; 78,75</t>
+          <t>70,12; 78,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,75; 78,52</t>
+          <t>70,16; 78,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,49; 78,59</t>
+          <t>53,24; 78,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 52,87</t>
+          <t>44,83; 52,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,82; 65,48</t>
+          <t>58,19; 65,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>64,53; 71,49</t>
+          <t>64,43; 71,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>54,72; 72,33</t>
+          <t>54,24; 71,82</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,32; 54,23</t>
+          <t>40,37; 53,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,98; 60,44</t>
+          <t>46,52; 60,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,21; 50,05</t>
+          <t>36,57; 49,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,28; 54,19</t>
+          <t>42,39; 55,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,55; 70,28</t>
+          <t>55,97; 69,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>75,73; 86,75</t>
+          <t>75,86; 86,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,12; 71,06</t>
+          <t>58,61; 70,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,5; 69,08</t>
+          <t>59,94; 68,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,55; 60,28</t>
+          <t>50,15; 59,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,11; 72,17</t>
+          <t>63,06; 72,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49,25; 58,48</t>
+          <t>49,7; 58,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>53,02; 60,73</t>
+          <t>53,42; 61,02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,68; 46,78</t>
+          <t>34,77; 46,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>52,84; 64,76</t>
+          <t>52,95; 64,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,93; 51,91</t>
+          <t>39,76; 52,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,3; 63,74</t>
+          <t>52,83; 63,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,18; 70,03</t>
+          <t>58,95; 70,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>72,9; 82,65</t>
+          <t>72,87; 82,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,91; 69,07</t>
+          <t>57,46; 69,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,97; 69,31</t>
+          <t>59,93; 69,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>48,43; 56,87</t>
+          <t>48,46; 57,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>64,48; 72,24</t>
+          <t>64,69; 72,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,63; 59,08</t>
+          <t>50,53; 59,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>57,79; 65,3</t>
+          <t>57,49; 65,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,93; 42,54</t>
+          <t>34,75; 43,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,18; 56,22</t>
+          <t>48,38; 56,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>41,0; 49,25</t>
+          <t>41,38; 49,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,32; 64,91</t>
+          <t>55,26; 64,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,92; 59,33</t>
+          <t>51,78; 59,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,88; 71,3</t>
+          <t>63,73; 71,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,11; 60,82</t>
+          <t>53,11; 61,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,88; 87,93</t>
+          <t>67,52; 87,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,75; 50,34</t>
+          <t>44,51; 50,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>57,25; 62,57</t>
+          <t>57,12; 62,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>48,49; 54,28</t>
+          <t>48,36; 54,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>63,52; 80,82</t>
+          <t>63,72; 81,13</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,57; 47,99</t>
+          <t>41,03; 48,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>38,13; 45,35</t>
+          <t>38,08; 45,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,05; 52,13</t>
+          <t>44,91; 52,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,54; 39,4</t>
+          <t>12,88; 39,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,02; 60,17</t>
+          <t>52,96; 60,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>55,21; 61,95</t>
+          <t>55,65; 62,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>60,63; 67,31</t>
+          <t>60,54; 67,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,6; 55,01</t>
+          <t>48,52; 54,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>48,1; 53,31</t>
+          <t>48,17; 53,27</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>47,68; 52,89</t>
+          <t>47,92; 52,94</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>53,86; 58,85</t>
+          <t>53,72; 58,9</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>24,67; 45,99</t>
+          <t>24,2; 45,99</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>38,75; 42,26</t>
+          <t>38,87; 42,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>48,61; 52,18</t>
+          <t>48,74; 52,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>48,05; 51,41</t>
+          <t>48,13; 51,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>38,2; 53,71</t>
+          <t>37,87; 53,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>56,82; 60,16</t>
+          <t>56,74; 60,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>68,7; 71,91</t>
+          <t>68,64; 71,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>63,27; 66,59</t>
+          <t>62,99; 66,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>63,28; 72,12</t>
+          <t>63,35; 73,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>48,5; 50,86</t>
+          <t>48,45; 50,88</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>59,31; 61,69</t>
+          <t>59,2; 61,66</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>56,27; 58,82</t>
+          <t>56,35; 58,79</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>51,85; 61,58</t>
+          <t>51,05; 61,46</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>108030</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>166790</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>173095</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>201368</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>153726</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>222876</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>200648</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>216309</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>261756</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>389666</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>373743</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>417676</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>91021; 123538</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>147605; 184382</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>154820; 190548</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>178388; 221602</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>137154; 169938</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>207787; 237605</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>185620; 217103</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>198755; 228475</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>237768; 285752</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>364946; 412100</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>351424; 399728</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>391077; 442756</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>188228</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>257052</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>242494</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>256633</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>294724</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>375172</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>350605</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>332540</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>482952</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>632224</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>593099</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>589173</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>167740; 213552</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>235824; 283004</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>220354; 267859</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>230367; 286655</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>270874; 314797</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>354272; 394410</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>327673; 370579</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>309310; 351040</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>450971; 516827</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>597897; 665057</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>558442; 622709</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>551083; 629184</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>114667</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>174057</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>160975</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>184981</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>206285</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>259644</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>221382</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>242728</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>320951</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>433701</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>382357</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>427709</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>99922; 133499</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>156321; 192212</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>144412; 179464</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>165744; 202519</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>188113; 223557</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>241746; 274797</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>201980; 237006</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>226901; 256769</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>294514; 346673</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>407067; 457072</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>359083; 406556</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>405094; 451820</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>143162</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>182854</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>225783</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>179212</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>214506</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>288905</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>288673</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>313004</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>357669</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>471759</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>514455</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>492215</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>124814; 163081</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>161835; 202861</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>207823; 245204</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>154740; 200829</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>195317; 231788</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>272043; 305714</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>271718; 305304</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>253259; 371993</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>327326; 383440</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>443386; 501357</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>487921; 541745</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>427576; 566124</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>95966</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>113454</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>91277</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>86506</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>131602</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>178391</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>141724</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>134635</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>227568</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>291845</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>221141</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>82086; 108765</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>98917; 128597</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>77246; 105257</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>75760; 98698</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>116233; 144367</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>166585; 190276</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>128116; 154538</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>125068; 143951</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>206118; 246374</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>272537; 311748</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>213624; 252871</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>206944; 236378</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>109434</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>161466</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>121394</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>157496</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>179722</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>217841</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>173309</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>166210</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>289156</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>379307</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>294702</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>323706</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>94160; 125652</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>145070; 177426</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>104607; 137693</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>142456; 171615</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>163974; 195235</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>203402; 230343</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>156935; 188694</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>154053; 179278</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>266022; 313372</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>357804; 402188</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>270949; 317805</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>302786; 343647</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1069</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>238204</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>346581</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>298352</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>375182</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>355240</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>469574</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>393377</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>648576</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>593444</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>816155</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>691729</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1023758</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>213737; 265498</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>320626; 375287</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>271691; 326393</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>344960; 404723</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>330460; 381332</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>442165; 495810</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>367168; 422350</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>573388; 746463</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>557817; 631661</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>774889; 849521</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>651838; 730661</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>938997; 1195540</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>330173</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>322969</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>376620</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>264248</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>443670</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>484367</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>528899</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>368952</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>773843</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>807336</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>905518</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>633200</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>304787; 358629</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>295905; 355068</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>349656; 406420</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>119575; 370530</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>414972; 475040</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>458470; 514706</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>500172; 556035</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>346859; 391317</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>735191; 813002</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>767190; 847425</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>862046; 945147</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>397722; 755954</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2311</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3268</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3897</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>5655</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1327863</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1725223</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1689989</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1705627</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1979475</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2496770</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2298617</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2422952</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>3307338</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4221993</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>3988605</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4128578</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1273254; 1384974</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1667748; 1784240</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1633568; 1750301</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1310152; 1859567</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1917351; 2039467</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2440594; 2553846</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2232652; 2355591</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2317771; 2679727</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3224177; 3385897</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4130658; 4301986</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3910385; 4079246</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3634249; 4375000</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>